--- a/Data/Model 0.1/Model 0.1.xlsx
+++ b/Data/Model 0.1/Model 0.1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Cooperation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annad\Cooperation\Data\Model 0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26242052-068B-4214-B56C-3892A209C994}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model 0.1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,7 +560,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
@@ -598,7 +599,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -638,7 +638,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>95% cooperative </c:v>
+            <c:v>High initial cooperativeness</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1287,7 +1287,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4FC8-4219-A902-455916D23A0A}"/>
             </c:ext>
@@ -1297,7 +1297,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>5% cooperative </c:v>
+            <c:v>Low initial cooperativeness</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1946,7 +1946,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4FC8-4219-A902-455916D23A0A}"/>
             </c:ext>
@@ -1956,7 +1956,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>67% cooperative </c:v>
+            <c:v>Medium initial cooperativeness</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2605,7 +2605,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4FC8-4219-A902-455916D23A0A}"/>
             </c:ext>
@@ -2670,7 +2670,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2793,7 +2792,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2873,8 +2871,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2942,7 +2939,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
@@ -2994,7 +2991,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3034,7 +3030,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>95% cooperative </c:v>
+            <c:v>High initial cooperativeness</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3683,7 +3679,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8420-452A-BF73-DA0307D39C48}"/>
             </c:ext>
@@ -3693,7 +3689,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>5% cooperative </c:v>
+            <c:v>Low initial cooperativeness</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4342,7 +4338,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8420-452A-BF73-DA0307D39C48}"/>
             </c:ext>
@@ -4352,7 +4348,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>67% cooperative </c:v>
+            <c:v>Medium initial cooperativeness</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5001,7 +4997,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8420-452A-BF73-DA0307D39C48}"/>
             </c:ext>
@@ -5066,7 +5062,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5179,12 +5174,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nl-NL" sz="1200"/>
-                  <a:t>Tendency to cooperate</a:t>
+                  <a:t>Mean cooperativeness</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5264,8 +5258,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6451,17 +6444,23 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>492307</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>28937</xdr:rowOff>
+      <xdr:rowOff>74657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>189321</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>9888</xdr:rowOff>
+      <xdr:rowOff>55608</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6491,7 +6490,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6771,11 +6776,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Model 0.1/Model 0.1.xlsx
+++ b/Data/Model 0.1/Model 0.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annad\Cooperation\Data\Model 0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26242052-068B-4214-B56C-3892A209C994}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028DAD96-4E75-4408-9E60-6EC7FC652457}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
